--- a/data/eloR_results_100.xlsx
+++ b/data/eloR_results_100.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2900" yWindow="500" windowWidth="19920" windowHeight="12480" tabRatio="500" activeTab="6"/>
+    <workbookView xWindow="2860" yWindow="500" windowWidth="19920" windowHeight="12480" tabRatio="555" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="1" r:id="rId1"/>
@@ -14,6 +14,7 @@
     <sheet name="pete" sheetId="5" r:id="rId5"/>
     <sheet name="karyn" sheetId="6" r:id="rId6"/>
     <sheet name="consensus" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet8" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="18">
   <si>
     <t>Player</t>
   </si>
@@ -77,6 +78,9 @@
   <si>
     <t>stdev</t>
   </si>
+  <si>
+    <t>use</t>
+  </si>
 </sst>
 </file>
 
@@ -124,8 +128,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -151,7 +159,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="21">
+  <cellStyles count="25">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -162,6 +170,8 @@
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -172,6 +182,8 @@
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -20516,8 +20528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="O33" sqref="O33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -24067,4 +24079,1239 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C101"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C101"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>187</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <f>IF(MOD(B2+3,4)=0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>149</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C66" si="0">IF(MOD(B3+3,4)=0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>216</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>181</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>142</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>191</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>214</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>127</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>200</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>186</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>180</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>141</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>182</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>130</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>199</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>211</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>143</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>218</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>153</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>172</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>210</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>165</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>159</v>
+      </c>
+      <c r="B24">
+        <v>23</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>203</v>
+      </c>
+      <c r="B25">
+        <v>24</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <v>126</v>
+      </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <v>145</v>
+      </c>
+      <c r="B27">
+        <v>26</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <v>122</v>
+      </c>
+      <c r="B28">
+        <v>27</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29">
+        <v>140</v>
+      </c>
+      <c r="B29">
+        <v>28</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30">
+        <v>207</v>
+      </c>
+      <c r="B30">
+        <v>29</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31">
+        <v>193</v>
+      </c>
+      <c r="B31">
+        <v>30</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32">
+        <v>163</v>
+      </c>
+      <c r="B32">
+        <v>31</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33">
+        <v>137</v>
+      </c>
+      <c r="B33">
+        <v>32</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34">
+        <v>162</v>
+      </c>
+      <c r="B34">
+        <v>33</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35">
+        <v>220</v>
+      </c>
+      <c r="B35">
+        <v>34</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36">
+        <v>206</v>
+      </c>
+      <c r="B36">
+        <v>35</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37">
+        <v>134</v>
+      </c>
+      <c r="B37">
+        <v>36</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38">
+        <v>123</v>
+      </c>
+      <c r="B38">
+        <v>37</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39">
+        <v>158</v>
+      </c>
+      <c r="B39">
+        <v>38</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40">
+        <v>132</v>
+      </c>
+      <c r="B40">
+        <v>39</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41">
+        <v>148</v>
+      </c>
+      <c r="B41">
+        <v>40</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42">
+        <v>167</v>
+      </c>
+      <c r="B42">
+        <v>41</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43">
+        <v>147</v>
+      </c>
+      <c r="B43">
+        <v>42</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44">
+        <v>212</v>
+      </c>
+      <c r="B44">
+        <v>43</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45">
+        <v>157</v>
+      </c>
+      <c r="B45">
+        <v>44</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46">
+        <v>125</v>
+      </c>
+      <c r="B46">
+        <v>45</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47">
+        <v>168</v>
+      </c>
+      <c r="B47">
+        <v>46</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48">
+        <v>173</v>
+      </c>
+      <c r="B48">
+        <v>47</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49">
+        <v>177</v>
+      </c>
+      <c r="B49">
+        <v>48</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50">
+        <v>150</v>
+      </c>
+      <c r="B50">
+        <v>49</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51">
+        <v>129</v>
+      </c>
+      <c r="B51">
+        <v>50</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52">
+        <v>121</v>
+      </c>
+      <c r="B52">
+        <v>51</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53">
+        <v>174</v>
+      </c>
+      <c r="B53">
+        <v>52</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54">
+        <v>217</v>
+      </c>
+      <c r="B54">
+        <v>53</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55">
+        <v>215</v>
+      </c>
+      <c r="B55">
+        <v>54</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56">
+        <v>201</v>
+      </c>
+      <c r="B56">
+        <v>55</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57">
+        <v>161</v>
+      </c>
+      <c r="B57">
+        <v>56</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58">
+        <v>171</v>
+      </c>
+      <c r="B58">
+        <v>57</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59">
+        <v>146</v>
+      </c>
+      <c r="B59">
+        <v>58</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60">
+        <v>175</v>
+      </c>
+      <c r="B60">
+        <v>59</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61">
+        <v>155</v>
+      </c>
+      <c r="B61">
+        <v>60</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62">
+        <v>164</v>
+      </c>
+      <c r="B62">
+        <v>61</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63">
+        <v>169</v>
+      </c>
+      <c r="B63">
+        <v>62</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64">
+        <v>213</v>
+      </c>
+      <c r="B64">
+        <v>63</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65">
+        <v>144</v>
+      </c>
+      <c r="B65">
+        <v>64</v>
+      </c>
+      <c r="C65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66">
+        <v>131</v>
+      </c>
+      <c r="B66">
+        <v>65</v>
+      </c>
+      <c r="C66">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67">
+        <v>124</v>
+      </c>
+      <c r="B67">
+        <v>66</v>
+      </c>
+      <c r="C67">
+        <f t="shared" ref="C67:C101" si="1">IF(MOD(B67+3,4)=0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68">
+        <v>170</v>
+      </c>
+      <c r="B68">
+        <v>67</v>
+      </c>
+      <c r="C68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69">
+        <v>136</v>
+      </c>
+      <c r="B69">
+        <v>68</v>
+      </c>
+      <c r="C69">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70">
+        <v>205</v>
+      </c>
+      <c r="B70">
+        <v>69</v>
+      </c>
+      <c r="C70">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71">
+        <v>190</v>
+      </c>
+      <c r="B71">
+        <v>70</v>
+      </c>
+      <c r="C71">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72">
+        <v>183</v>
+      </c>
+      <c r="B72">
+        <v>71</v>
+      </c>
+      <c r="C72">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73">
+        <v>138</v>
+      </c>
+      <c r="B73">
+        <v>72</v>
+      </c>
+      <c r="C73">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74">
+        <v>194</v>
+      </c>
+      <c r="B74">
+        <v>73</v>
+      </c>
+      <c r="C74">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75">
+        <v>208</v>
+      </c>
+      <c r="B75">
+        <v>74</v>
+      </c>
+      <c r="C75">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76">
+        <v>133</v>
+      </c>
+      <c r="B76">
+        <v>75</v>
+      </c>
+      <c r="C76">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77">
+        <v>156</v>
+      </c>
+      <c r="B77">
+        <v>76</v>
+      </c>
+      <c r="C77">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78">
+        <v>184</v>
+      </c>
+      <c r="B78">
+        <v>77</v>
+      </c>
+      <c r="C78">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79">
+        <v>152</v>
+      </c>
+      <c r="B79">
+        <v>78</v>
+      </c>
+      <c r="C79">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80">
+        <v>154</v>
+      </c>
+      <c r="B80">
+        <v>79</v>
+      </c>
+      <c r="C80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81">
+        <v>219</v>
+      </c>
+      <c r="B81">
+        <v>80</v>
+      </c>
+      <c r="C81">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82">
+        <v>176</v>
+      </c>
+      <c r="B82">
+        <v>81</v>
+      </c>
+      <c r="C82">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83">
+        <v>195</v>
+      </c>
+      <c r="B83">
+        <v>82</v>
+      </c>
+      <c r="C83">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84">
+        <v>185</v>
+      </c>
+      <c r="B84">
+        <v>83</v>
+      </c>
+      <c r="C84">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85">
+        <v>209</v>
+      </c>
+      <c r="B85">
+        <v>84</v>
+      </c>
+      <c r="C85">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86">
+        <v>160</v>
+      </c>
+      <c r="B86">
+        <v>85</v>
+      </c>
+      <c r="C86">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87">
+        <v>139</v>
+      </c>
+      <c r="B87">
+        <v>86</v>
+      </c>
+      <c r="C87">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88">
+        <v>198</v>
+      </c>
+      <c r="B88">
+        <v>87</v>
+      </c>
+      <c r="C88">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89">
+        <v>151</v>
+      </c>
+      <c r="B89">
+        <v>88</v>
+      </c>
+      <c r="C89">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90">
+        <v>128</v>
+      </c>
+      <c r="B90">
+        <v>89</v>
+      </c>
+      <c r="C90">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91">
+        <v>204</v>
+      </c>
+      <c r="B91">
+        <v>90</v>
+      </c>
+      <c r="C91">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92">
+        <v>178</v>
+      </c>
+      <c r="B92">
+        <v>91</v>
+      </c>
+      <c r="C92">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93">
+        <v>189</v>
+      </c>
+      <c r="B93">
+        <v>92</v>
+      </c>
+      <c r="C93">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94">
+        <v>179</v>
+      </c>
+      <c r="B94">
+        <v>93</v>
+      </c>
+      <c r="C94">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95">
+        <v>192</v>
+      </c>
+      <c r="B95">
+        <v>94</v>
+      </c>
+      <c r="C95">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96">
+        <v>166</v>
+      </c>
+      <c r="B96">
+        <v>95</v>
+      </c>
+      <c r="C96">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97">
+        <v>202</v>
+      </c>
+      <c r="B97">
+        <v>96</v>
+      </c>
+      <c r="C97">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98">
+        <v>196</v>
+      </c>
+      <c r="B98">
+        <v>97</v>
+      </c>
+      <c r="C98">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99">
+        <v>135</v>
+      </c>
+      <c r="B99">
+        <v>98</v>
+      </c>
+      <c r="C99">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100">
+        <v>188</v>
+      </c>
+      <c r="B100">
+        <v>99</v>
+      </c>
+      <c r="C100">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101">
+        <v>197</v>
+      </c>
+      <c r="B101">
+        <v>100</v>
+      </c>
+      <c r="C101">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:B101">
+    <sortCondition ref="B2:B101"/>
+  </sortState>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>